--- a/biology/Histoire de la zoologie et de la botanique/C.F.Gaertn/C.F.Gaertn..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/C.F.Gaertn/C.F.Gaertn..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl (ou Carl) Friedrich von Gärtner est un médecin et botaniste wurtembergeois, né le 1er mai 1772 à Göppingen et mort le 1er septembre 1850 à Calw.
 Il est le fils de Joseph Gärtner, botaniste, directeur du jardin botanique de Saint-Pétersbourg. Il étudie la médecine à Iéna, Göttingen et Tübingen. Gärtner ouvre un cabinet de médecine générale à Calw en 1796. En 1800, il ferme son cabinet et décide de se consacrer à la botanique.
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(la) Supplementum carpologicae, seu continuati operis Josephi Gaertner de fructibus et seminibus plantarum voluminis tertii, Leipzig, 1805-1807.
 (de) Beiträge zur Kenntnis der Befruchtung. Teil 1, Stuttgart, 1844.
